--- a/AMD_Adaptive_Battery_Charging/Train Data.xlsx
+++ b/AMD_Adaptive_Battery_Charging/Train Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amdcloud-my.sharepoint.com/personal/sachanta_amd_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sachanta\OneDrive - Advanced Micro Devices Inc\AMD_Adaptive_Battery_Charging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{5E36A8E1-02A2-4E2B-A6C6-FE9B732FFFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC23726-15CE-4F86-99CD-EF86F84F816B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99421D1-B125-493A-ACFB-4EF79D1CF585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{801B0BF0-D9DF-4489-BF8D-152D668F1820}"/>
+    <workbookView xWindow="2000" yWindow="-93" windowWidth="23693" windowHeight="14586" xr2:uid="{801B0BF0-D9DF-4489-BF8D-152D668F1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3806,9 +3806,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3846,7 +3846,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3952,7 +3952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4094,7 +4094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4108,9 +4108,9 @@
       <selection activeCell="FZ4" sqref="FZ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:182" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>0.24928544999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:182" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.5">
       <c r="B2">
         <f>1/(1+EXP(-B1))</f>
         <v>0.7110447365398409</v>
@@ -5384,7 +5384,7 @@
         <v>0.56200061797029688</v>
       </c>
     </row>
-    <row r="3" spans="1:182" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.5">
       <c r="B3">
         <f>1-B1</f>
         <v>9.9536529999999956E-2</v>
@@ -6110,7 +6110,7 @@
         <v>0.75071454999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:182" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.5">
       <c r="B4">
         <f>1/(1+EXP(-B3))</f>
         <v>0.52486360782958308</v>
@@ -6836,7 +6836,7 @@
         <v>0.67933437610491132</v>
       </c>
     </row>
-    <row r="6" spans="1:182" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>1</v>
       </c>
@@ -7385,7 +7385,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0000FF[AMD Official Use Only - General]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K008000 [Public]&amp;1#_x000D_</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7393,6 +7393,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{4342314e-0df4-4b58-84bf-38bed6170a0f}" enabled="1" method="Standard" siteId="{3dd8961f-e488-4e60-8e11-a82d994e183d}" contentBits="1" removed="0"/>
+  <clbl:label id="{f265efc6-e181-49d6-80f4-fae95cf838a0}" enabled="1" method="Privileged" siteId="{3dd8961f-e488-4e60-8e11-a82d994e183d}" contentBits="1" removed="0"/>
 </clbl:labelList>
 </file>